--- a/Trimestre IV/Base de Datos/DML/Insert Información Proyecto.xlsx
+++ b/Trimestre IV/Base de Datos/DML/Insert Información Proyecto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marlo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marlo\Documents\GitHub\EntryMC\Trimestre IV\Base de Datos\DML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F700D8-4037-494C-ABDE-037BA617BE18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9018E68-67A5-4689-A2BC-A10C0B1496A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="7" activeTab="10" xr2:uid="{1E72208C-CE2B-45EF-ACA6-AA0A09C337DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="6" activeTab="7" xr2:uid="{1E72208C-CE2B-45EF-ACA6-AA0A09C337DE}"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIOS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="243">
   <si>
     <t>Nombre_Documento</t>
   </si>
@@ -514,109 +514,19 @@
     <t>Fecha_Orden_Trabajo</t>
   </si>
   <si>
-    <t>KUM35</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>KUM36</t>
-  </si>
-  <si>
     <t>PROBELMAS MECANICOS</t>
   </si>
   <si>
-    <t>KUM37</t>
-  </si>
-  <si>
-    <t>KUM38</t>
-  </si>
-  <si>
     <t>EN ESPERA DE REVISION</t>
   </si>
   <si>
-    <t>KUM39</t>
-  </si>
-  <si>
     <t>PROBELMAS ELECTRICOS</t>
   </si>
   <si>
-    <t>KUM40</t>
-  </si>
-  <si>
     <t>PROBELMAS CARROSERO</t>
-  </si>
-  <si>
-    <t>KUM41</t>
-  </si>
-  <si>
-    <t>KUM42</t>
-  </si>
-  <si>
-    <t>KUM43</t>
-  </si>
-  <si>
-    <t>KUM44</t>
-  </si>
-  <si>
-    <t>KUM45</t>
-  </si>
-  <si>
-    <t>KUM46</t>
-  </si>
-  <si>
-    <t>KUM47</t>
-  </si>
-  <si>
-    <t>KUM48</t>
-  </si>
-  <si>
-    <t>KUM49</t>
-  </si>
-  <si>
-    <t>CDJ34</t>
-  </si>
-  <si>
-    <t>CDJ35</t>
-  </si>
-  <si>
-    <t>CDJ36</t>
-  </si>
-  <si>
-    <t>CDJ37</t>
-  </si>
-  <si>
-    <t>CDJ38</t>
-  </si>
-  <si>
-    <t>CDJ39</t>
-  </si>
-  <si>
-    <t>CDJ40</t>
-  </si>
-  <si>
-    <t>CDJ41</t>
-  </si>
-  <si>
-    <t>CDJ42</t>
-  </si>
-  <si>
-    <t>CDJ43</t>
-  </si>
-  <si>
-    <t>CDJ44</t>
-  </si>
-  <si>
-    <t>CDJ45</t>
-  </si>
-  <si>
-    <t>CDJ46</t>
-  </si>
-  <si>
-    <t>CDJ47</t>
-  </si>
-  <si>
-    <t>CDJ48</t>
   </si>
   <si>
     <t>MC001</t>
@@ -860,7 +770,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +782,14 @@
       <sz val="9"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -894,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -907,6 +825,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,7 +1215,7 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,1000000000)</f>
-        <v>189476684</v>
+        <v>362343655</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1301,7 +1225,7 @@
       </c>
       <c r="I3" s="1">
         <f ca="1">RANDBETWEEN(1,10000000000)</f>
-        <v>3908568840</v>
+        <v>9763499727</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1314,7 +1238,7 @@
       </c>
       <c r="M3" t="str">
         <f ca="1">"INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;","&amp;F3&amp;",'"&amp;G3&amp;"','"&amp;H3&amp;"',"&amp;I3&amp;","&amp;J3&amp;",'"&amp;K3&amp;"',"&amp;L3&amp;");"</f>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ANTONIO','HERNANDEZ',1,189476684,'DIAGONAL25','AH@GMAIL.COM',3908568840,1,'11020112930',11020112930);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ANTONIO','HERNANDEZ',1,362343655,'DIAGONAL25','AH@GMAIL.COM',9763499727,1,'11020112930',11020112930);</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1332,7 +1256,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F32" ca="1" si="0">RANDBETWEEN(1,1000000000)</f>
-        <v>757829994</v>
+        <v>755274282</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -1342,7 +1266,7 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I32" ca="1" si="1">RANDBETWEEN(1,10000000000)</f>
-        <v>8346464029</v>
+        <v>6705395446</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1355,7 +1279,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M32" ca="1" si="2">"INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES ("&amp;B4&amp;",'"&amp;C4&amp;"','"&amp;D4&amp;"',"&amp;E4&amp;","&amp;F4&amp;",'"&amp;G4&amp;"','"&amp;H4&amp;"',"&amp;I4&amp;","&amp;J4&amp;",'"&amp;K4&amp;"',"&amp;L4&amp;");"</f>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'MANUEL','SANCHEZ',1,757829994,'CALLE 20','MS@GMAIL.COM',8346464029,2,'12129866285',12129866285);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'MANUEL','SANCHEZ',1,755274282,'CALLE 20','MS@GMAIL.COM',6705395446,2,'12129866285',12129866285);</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1373,7 +1297,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>366472777</v>
+        <v>864182218</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -1383,7 +1307,7 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4100778344</v>
+        <v>936698768</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1396,7 +1320,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE','CARO',2,366472777,'CALLE 80','JC@GMAIL.COM',4100778344,1,'94846476578',94846476578);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE','CARO',2,864182218,'CALLE 80','JC@GMAIL.COM',936698768,1,'94846476578',94846476578);</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1414,7 +1338,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>937707797</v>
+        <v>935816364</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1424,7 +1348,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>622381282</v>
+        <v>8642320757</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1437,7 +1361,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'FRANCISCO','GARCIA',1,937707797,'DIAGONAL25','FG@GMAIL.COM',622381282,4,'11020112933',11020112933);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'FRANCISCO','GARCIA',1,935816364,'DIAGONAL25','FG@GMAIL.COM',8642320757,4,'11020112933',11020112933);</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -1455,7 +1379,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>828701162</v>
+        <v>342308896</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1465,7 +1389,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5441261551</v>
+        <v>7470352796</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1478,7 +1402,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'DAVID','CRUZ',1,828701162,'CARRERA 69','DC@GMAIL.COM',5441261551,3,'94846476579',94846476579);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'DAVID','CRUZ',1,342308896,'CARRERA 69','DC@GMAIL.COM',7470352796,3,'94846476579',94846476579);</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -1496,7 +1420,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>693728424</v>
+        <v>46122475</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -1506,7 +1430,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2554189853</v>
+        <v>6654525260</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1519,7 +1443,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JUAN','ACERO',1,693728424,'CALLE 80','JA@GMAIL.COM',2554189853,3,'11020112935',11020112935);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JUAN','ACERO',1,46122475,'CALLE 80','JA@GMAIL.COM',6654525260,3,'11020112935',11020112935);</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -1537,7 +1461,7 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>694506083</v>
+        <v>200636557</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1547,7 +1471,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8766138048</v>
+        <v>2887665210</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1560,7 +1484,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JAVIER','MONROY',2,694506083,'CALLE 20','JM@GMAIL.COM',8766138048,2,'94846476580',94846476580);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JAVIER','MONROY',2,200636557,'CALLE 20','JM@GMAIL.COM',2887665210,2,'94846476580',94846476580);</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -1578,7 +1502,7 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>383375631</v>
+        <v>213340491</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -1588,7 +1512,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8178304177</v>
+        <v>4954822135</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1601,7 +1525,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE ANTONIO','VILLA',1,383375631,'CARRERA 89','JAV@GMAIL.COM',8178304177,1,'94846476582',94846476582);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE ANTONIO','VILLA',1,213340491,'CARRERA 89','JAV@GMAIL.COM',4954822135,1,'94846476582',94846476582);</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -1619,7 +1543,7 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>976258755</v>
+        <v>950197563</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -1629,7 +1553,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3489415422</v>
+        <v>5372479686</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -1642,7 +1566,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'DANIEL','PIÑEROS',1,976258755,'DIAGONAL70','DP@GMAIL.COM',3489415422,4,'45676754978',45676754978);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'DANIEL','PIÑEROS',1,950197563,'DIAGONAL70','DP@GMAIL.COM',5372479686,4,'45676754978',45676754978);</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -1660,7 +1584,7 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>439965482</v>
+        <v>3925584</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1670,7 +1594,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6841167138</v>
+        <v>9563510631</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1683,7 +1607,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'FRANCISCO JAVIER','ROCHA',1,439965482,'CALLE 20','FJR@GMAIL.COM',6841167138,1,'11020112939',11020112939);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'FRANCISCO JAVIER','ROCHA',1,3925584,'CALLE 20','FJR@GMAIL.COM',9563510631,1,'11020112939',11020112939);</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -1701,7 +1625,7 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>818644297</v>
+        <v>135775127</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
@@ -1711,7 +1635,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7027071811</v>
+        <v>7767366840</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1724,7 +1648,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE LUIS','BLANCO',3,818644297,'CARRERA 69','JB@GMAIL.COM',7027071811,3,'94846476581',94846476581);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE LUIS','BLANCO',3,135775127,'CARRERA 69','JB@GMAIL.COM',7767366840,3,'94846476581',94846476581);</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -1742,7 +1666,7 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>330232477</v>
+        <v>5422942</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1752,7 +1676,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8323336826</v>
+        <v>1980411484</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -1765,7 +1689,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'CARLOS','MARTÍNEZ',1,330232477,'CARRERA 89','CM@GMAIL.COM',8323336826,4,'94846476586',94846476586);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'CARLOS','MARTÍNEZ',1,5422942,'CARRERA 89','CM@GMAIL.COM',1980411484,4,'94846476586',94846476586);</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -1783,7 +1707,7 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>277902493</v>
+        <v>985805387</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
@@ -1793,7 +1717,7 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6367652197</v>
+        <v>113832732</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1806,7 +1730,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JESUS','VILLAMIZAR',1,277902493,'DIAGONAL70','JV@GMAIL.COM',6367652197,1,'11020112931',11020112931);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JESUS','VILLAMIZAR',1,985805387,'DIAGONAL70','JV@GMAIL.COM',113832732,1,'11020112931',11020112931);</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -1824,7 +1748,7 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>258809598</v>
+        <v>673676749</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -1834,7 +1758,7 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>914382129</v>
+        <v>509987252</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1847,7 +1771,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ALEJANDRO','ARISTIZABAL',1,258809598,'CALLE 20','AA@GMAIL.COM',914382129,1,'24566754981',24566754981);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ALEJANDRO','ARISTIZABAL',1,673676749,'CALLE 20','AA@GMAIL.COM',509987252,1,'24566754981',24566754981);</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -1865,7 +1789,7 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>952629135</v>
+        <v>589213444</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -1875,7 +1799,7 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3092062448</v>
+        <v>2214738008</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1888,7 +1812,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'MIGUEL','CONTRERAS',1,952629135,'CARRERA 69','MC@GMAIL.COM',3092062448,1,'24676754980',24676754980);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'MIGUEL','CONTRERAS',1,589213444,'CARRERA 69','MC@GMAIL.COM',2214738008,1,'24676754980',24676754980);</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -1906,7 +1830,7 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>94258282</v>
+        <v>655860457</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -1916,7 +1840,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2635969749</v>
+        <v>3056603793</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1929,7 +1853,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE MANUEL','CASTAÑO',1,94258282,'CALLE 80','JMC@GMAIL.COM',2635969749,4,'94846476583',94846476583);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JOSE MANUEL','CASTAÑO',1,655860457,'CALLE 80','JMC@GMAIL.COM',3056603793,4,'94846476583',94846476583);</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -1947,7 +1871,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>429600913</v>
+        <v>493845395</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
@@ -1957,7 +1881,7 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4721442447</v>
+        <v>1725451004</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1970,7 +1894,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'RAFAEL','CASTELLANOS',1,429600913,'CARRERA 89','RC@GMAIL.COM',4721442447,1,'11020112932',11020112932);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'RAFAEL','CASTELLANOS',1,493845395,'CARRERA 89','RC@GMAIL.COM',1725451004,1,'11020112932',11020112932);</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -1988,7 +1912,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>570623424</v>
+        <v>318779458</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -1998,7 +1922,7 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8041580043</v>
+        <v>512347109</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2011,7 +1935,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'MIGUEL ANGEL','RODRIGUEZ',2,570623424,'DIAGONAL25','MAR@GMAIL.COM',8041580043,4,'24567654982',24567654982);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'MIGUEL ANGEL','RODRIGUEZ',2,318779458,'DIAGONAL25','MAR@GMAIL.COM',512347109,4,'24567654982',24567654982);</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -2029,7 +1953,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>118537636</v>
+        <v>36877761</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2039,7 +1963,7 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5327908306</v>
+        <v>9178007776</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -2052,7 +1976,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'PABLO','GOMEZ',1,118537636,'CALLE 20','PG@GMAIL.COM',5327908306,3,'24566754979',24566754979);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'PABLO','GOMEZ',1,36877761,'CALLE 20','PG@GMAIL.COM',9178007776,3,'24566754979',24566754979);</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -2070,7 +1994,7 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>169358983</v>
+        <v>693461283</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -2080,7 +2004,7 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1783795677</v>
+        <v>2507928120</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2093,7 +2017,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'PEDRO','ALFONSO',1,169358983,'CARRERA 69','PAL@GMAIL.COM',1783795677,1,'11020112934',11020112934);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'PEDRO','ALFONSO',1,693461283,'CARRERA 69','PAL@GMAIL.COM',2507928120,1,'11020112934',11020112934);</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -2111,7 +2035,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>431034863</v>
+        <v>405847389</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
@@ -2121,7 +2045,7 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7479722831</v>
+        <v>5605992972</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2134,7 +2058,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ANGEL','OSPINA',1,431034863,'DIAGONAL70','ANO@GMAIL.COM',7479722831,1,'24676754983',24676754983);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ANGEL','OSPINA',1,405847389,'DIAGONAL70','ANO@GMAIL.COM',5605992972,1,'24676754983',24676754983);</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -2152,7 +2076,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>133041522</v>
+        <v>482265820</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -2162,7 +2086,7 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8551607964</v>
+        <v>3739714735</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -2175,7 +2099,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'SERGIO','TORRES',1,133041522,'CALLE 80','SET@GMAIL.COM',8551607964,4,'11020112936',11020112936);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'SERGIO','TORRES',1,482265820,'CALLE 80','SET@GMAIL.COM',3739714735,4,'11020112936',11020112936);</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -2193,7 +2117,7 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>657184816</v>
+        <v>792339068</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
@@ -2203,7 +2127,7 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1543256712</v>
+        <v>3570391149</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2216,7 +2140,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'DIEGO ','GUZMÁN',3,657184816,'DIAGONAL25','DIG@GMAIL.COM',1543256712,2,'59898798765',59898798765);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'DIEGO ','GUZMÁN',3,792339068,'DIAGONAL25','DIG@GMAIL.COM',3570391149,2,'59898798765',59898798765);</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -2234,7 +2158,7 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>967613053</v>
+        <v>451187176</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -2244,7 +2168,7 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8612588202</v>
+        <v>2442502869</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2257,7 +2181,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'FERNANDO','CASTIBLANCO',1,967613053,'CARRERA 69','FEC@GMAIL.COM',8612588202,1,'59898794765',59898794765);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'FERNANDO','CASTIBLANCO',1,451187176,'CARRERA 69','FEC@GMAIL.COM',2442502869,1,'59898794765',59898794765);</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -2275,7 +2199,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>735388774</v>
+        <v>774985918</v>
       </c>
       <c r="G27" t="s">
         <v>52</v>
@@ -2285,7 +2209,7 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5209038684</v>
+        <v>9657542514</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2298,7 +2222,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JORGE','SALGADO',1,735388774,'CARRERA 89','JS@GMAIL.COM',5209038684,4,'11020112937',11020112937);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JORGE','SALGADO',1,774985918,'CARRERA 89','JS@GMAIL.COM',9657542514,4,'11020112937',11020112937);</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2316,7 +2240,7 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>414489380</v>
+        <v>628577650</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -2326,7 +2250,7 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9388759822</v>
+        <v>2127644962</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2339,7 +2263,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'LUIS','DELGADO',1,414489380,'CALLE 20','LDE@GMAIL.COM',9388759822,1,'94846476587',94846476587);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'LUIS','DELGADO',1,628577650,'CALLE 20','LDE@GMAIL.COM',2127644962,1,'94846476587',94846476587);</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -2357,7 +2281,7 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>883028519</v>
+        <v>831615454</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -2367,7 +2291,7 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8907371351</v>
+        <v>2815962867</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -2380,7 +2304,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ALBERTO','ÁVILA',3,883028519,'CALLE 80','AAV@GMAIL.COM',8907371351,4,'11020112938',11020112938);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ALBERTO','ÁVILA',3,831615454,'CALLE 80','AAV@GMAIL.COM',2815962867,4,'11020112938',11020112938);</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -2398,7 +2322,7 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>774031931</v>
+        <v>162732048</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -2408,7 +2332,7 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8103514643</v>
+        <v>3586780595</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2421,7 +2345,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ALVARO','BUSTOS',1,774031931,'CARRERA 69','ABU@GMAIL.COM',8103514643,1,'12129866286',12129866286);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ALVARO','BUSTOS',1,162732048,'CARRERA 69','ABU@GMAIL.COM',3586780595,1,'12129866286',12129866286);</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -2439,7 +2363,7 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>151241819</v>
+        <v>524985954</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -2449,7 +2373,7 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5984062682</v>
+        <v>4046981398</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2462,7 +2386,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JUAN CARLOS','RODRIGUEZ',2,151241819,'DIAGONAL25','JCR@GMAIL.COM',5984062682,3,'94846476585',94846476585);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'JUAN CARLOS','RODRIGUEZ',2,524985954,'DIAGONAL25','JCR@GMAIL.COM',4046981398,3,'94846476585',94846476585);</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -2480,7 +2404,7 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>255311322</v>
+        <v>799597362</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -2490,7 +2414,7 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9186724604</v>
+        <v>896176320</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2503,7 +2427,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ADRIAN','GARCIA',3,255311322,'CALLE 20','ADG@GMAIL.COM',9186724604,1,'94846476584',94846476584);</v>
+        <v>INSERT INTO USUARIOS (Id_Usuario,Nombre_Usuario, Apellido_Usuario,Tipo_Documento,Numero_Documento,Direccion,Correo_Electronico,Celular,Nombre_Rol,Login,Password)VALUES (NULL,'ADRIAN','GARCIA',3,799597362,'CALLE 20','ADG@GMAIL.COM',896176320,1,'94846476584',94846476584);</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2454,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>140</v>
@@ -2554,7 +2478,7 @@
         <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -2565,13 +2489,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
         <v>194</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="G3">
         <v>2021</v>
@@ -2580,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="3">
         <v>44708</v>
@@ -2602,13 +2526,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
         <v>195</v>
       </c>
-      <c r="E4" t="s">
-        <v>225</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G4">
         <v>2021</v>
@@ -2617,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="J4" s="3">
         <v>44708</v>
@@ -2639,13 +2563,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
         <v>196</v>
       </c>
-      <c r="E5" t="s">
-        <v>226</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G5">
         <v>2020</v>
@@ -2654,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="3">
         <v>44708</v>
@@ -2676,13 +2600,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" t="s">
-        <v>227</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G6">
         <v>2022</v>
@@ -2691,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="3">
         <v>44708</v>
@@ -2713,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
         <v>198</v>
       </c>
-      <c r="E7" t="s">
-        <v>228</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G7">
         <v>2020</v>
@@ -2728,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="3">
         <v>44708</v>
@@ -2750,13 +2674,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
         <v>199</v>
       </c>
-      <c r="E8" t="s">
-        <v>229</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G8">
         <v>2020</v>
@@ -2765,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="J8" s="3">
         <v>44708</v>
@@ -2787,13 +2711,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
         <v>200</v>
       </c>
-      <c r="E9" t="s">
-        <v>230</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2020</v>
@@ -2802,7 +2726,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="J9" s="3">
         <v>44686</v>
@@ -2824,13 +2748,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
         <v>201</v>
       </c>
-      <c r="E10" t="s">
-        <v>231</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G10">
         <v>2022</v>
@@ -2839,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J10" s="3">
         <v>44687</v>
@@ -2861,13 +2785,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
         <v>202</v>
       </c>
-      <c r="E11" t="s">
-        <v>232</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G11">
         <v>2021</v>
@@ -2876,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11" s="3">
         <v>44688</v>
@@ -2898,13 +2822,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" t="s">
-        <v>233</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G12">
         <v>2020</v>
@@ -2913,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="3">
         <v>44689</v>
@@ -2935,13 +2859,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" t="s">
         <v>204</v>
       </c>
-      <c r="E13" t="s">
-        <v>234</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G13">
         <v>2022</v>
@@ -2950,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="J13" s="3">
         <v>44690</v>
@@ -2972,13 +2896,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
         <v>205</v>
       </c>
-      <c r="E14" t="s">
-        <v>235</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G14">
         <v>2021</v>
@@ -2987,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" s="3">
         <v>44691</v>
@@ -3009,13 +2933,13 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="E15" t="s">
-        <v>236</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G15">
         <v>2021</v>
@@ -3024,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="3">
         <v>44692</v>
@@ -3046,13 +2970,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
         <v>207</v>
       </c>
-      <c r="E16" t="s">
-        <v>237</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>2020</v>
@@ -3061,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J16" s="3">
         <v>44693</v>
@@ -3083,13 +3007,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
         <v>208</v>
       </c>
-      <c r="E17" t="s">
-        <v>238</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G17">
         <v>2021</v>
@@ -3098,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" s="3">
         <v>44694</v>
@@ -3120,13 +3044,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
         <v>209</v>
       </c>
-      <c r="E18" t="s">
-        <v>239</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G18">
         <v>2022</v>
@@ -3135,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="3">
         <v>44695</v>
@@ -3157,13 +3081,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
         <v>210</v>
       </c>
-      <c r="E19" t="s">
-        <v>240</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G19">
         <v>2020</v>
@@ -3172,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="3">
         <v>44696</v>
@@ -3194,13 +3118,13 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" t="s">
         <v>211</v>
       </c>
-      <c r="E20" t="s">
-        <v>241</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G20">
         <v>2020</v>
@@ -3209,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="J20" s="3">
         <v>44697</v>
@@ -3231,13 +3155,13 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" t="s">
         <v>212</v>
       </c>
-      <c r="E21" t="s">
-        <v>242</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G21">
         <v>2020</v>
@@ -3246,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" s="3">
         <v>44698</v>
@@ -3268,13 +3192,13 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
         <v>213</v>
       </c>
-      <c r="E22" t="s">
-        <v>243</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G22">
         <v>2021</v>
@@ -3283,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22" s="3">
         <v>44699</v>
@@ -3305,13 +3229,13 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" t="s">
         <v>214</v>
       </c>
-      <c r="E23" t="s">
-        <v>244</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G23">
         <v>2022</v>
@@ -3320,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J23" s="3">
         <v>44700</v>
@@ -3342,13 +3266,13 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" t="s">
         <v>215</v>
       </c>
-      <c r="E24" t="s">
-        <v>245</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G24">
         <v>2022</v>
@@ -3357,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J24" s="3">
         <v>44701</v>
@@ -3379,13 +3303,13 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
         <v>216</v>
       </c>
-      <c r="E25" t="s">
-        <v>246</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G25">
         <v>2020</v>
@@ -3394,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J25" s="3">
         <v>44702</v>
@@ -3416,13 +3340,13 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
         <v>217</v>
       </c>
-      <c r="E26" t="s">
-        <v>247</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G26">
         <v>2021</v>
@@ -3431,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J26" s="3">
         <v>44703</v>
@@ -3453,13 +3377,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" t="s">
         <v>218</v>
       </c>
-      <c r="E27" t="s">
-        <v>248</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G27">
         <v>2021</v>
@@ -3468,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J27" s="3">
         <v>44704</v>
@@ -3490,13 +3414,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="s">
         <v>219</v>
       </c>
-      <c r="E28" t="s">
-        <v>249</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G28">
         <v>2022</v>
@@ -3505,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J28" s="3">
         <v>44705</v>
@@ -3527,13 +3451,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
         <v>220</v>
       </c>
-      <c r="E29" t="s">
-        <v>250</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G29">
         <v>2020</v>
@@ -3542,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J29" s="3">
         <v>44706</v>
@@ -3564,13 +3488,13 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="E30" t="s">
-        <v>251</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G30">
         <v>2020</v>
@@ -3579,7 +3503,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J30" s="3">
         <v>44707</v>
@@ -3601,13 +3525,13 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
         <v>222</v>
       </c>
-      <c r="E31" t="s">
-        <v>252</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G31">
         <v>2020</v>
@@ -3616,7 +3540,7 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="J31" s="3">
         <v>44708</v>
@@ -3638,13 +3562,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
         <v>223</v>
       </c>
-      <c r="E32" t="s">
-        <v>253</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G32">
         <v>2020</v>
@@ -3653,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="J32" s="3">
         <v>44709</v>
@@ -3676,7 +3600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE172230-CB81-497D-BBE3-46C4EE8B35AA}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L32"/>
     </sheetView>
   </sheetViews>
@@ -3690,7 +3614,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>140</v>
@@ -3714,7 +3638,7 @@
         <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -3725,13 +3649,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
         <v>194</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="G3">
         <v>2021</v>
@@ -3740,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="3">
         <v>44709</v>
@@ -3762,13 +3686,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
         <v>195</v>
       </c>
-      <c r="E4" t="s">
-        <v>225</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G4">
         <v>2021</v>
@@ -3777,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J4" s="3">
         <v>44710</v>
@@ -3799,13 +3723,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
         <v>196</v>
       </c>
-      <c r="E5" t="s">
-        <v>226</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G5">
         <v>2020</v>
@@ -3814,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="3">
         <v>44711</v>
@@ -3836,13 +3760,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" t="s">
-        <v>227</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G6">
         <v>2022</v>
@@ -3851,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="3">
         <v>44712</v>
@@ -3873,13 +3797,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
         <v>198</v>
       </c>
-      <c r="E7" t="s">
-        <v>228</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G7">
         <v>2020</v>
@@ -3888,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="3">
         <v>44713</v>
@@ -3910,13 +3834,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
         <v>199</v>
       </c>
-      <c r="E8" t="s">
-        <v>229</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G8">
         <v>2020</v>
@@ -3925,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" s="3">
         <v>44714</v>
@@ -3947,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
         <v>200</v>
       </c>
-      <c r="E9" t="s">
-        <v>230</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2020</v>
@@ -3962,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J9" s="3">
         <v>44715</v>
@@ -3984,13 +3908,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
         <v>201</v>
       </c>
-      <c r="E10" t="s">
-        <v>231</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G10">
         <v>2022</v>
@@ -3999,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J10" s="3">
         <v>44716</v>
@@ -4021,13 +3945,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
         <v>202</v>
       </c>
-      <c r="E11" t="s">
-        <v>232</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G11">
         <v>2021</v>
@@ -4036,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11" s="3">
         <v>44717</v>
@@ -4058,13 +3982,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" t="s">
-        <v>233</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G12">
         <v>2020</v>
@@ -4073,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="3">
         <v>44718</v>
@@ -4095,13 +4019,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" t="s">
         <v>204</v>
       </c>
-      <c r="E13" t="s">
-        <v>234</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G13">
         <v>2022</v>
@@ -4110,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13" s="3">
         <v>44719</v>
@@ -4132,13 +4056,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
         <v>205</v>
       </c>
-      <c r="E14" t="s">
-        <v>235</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G14">
         <v>2021</v>
@@ -4147,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" s="3">
         <v>44720</v>
@@ -4169,13 +4093,13 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="E15" t="s">
-        <v>236</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G15">
         <v>2021</v>
@@ -4184,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="3">
         <v>44721</v>
@@ -4206,13 +4130,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
         <v>207</v>
       </c>
-      <c r="E16" t="s">
-        <v>237</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>2020</v>
@@ -4221,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J16" s="3">
         <v>44722</v>
@@ -4243,13 +4167,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
         <v>208</v>
       </c>
-      <c r="E17" t="s">
-        <v>238</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G17">
         <v>2021</v>
@@ -4258,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" s="3">
         <v>44723</v>
@@ -4280,13 +4204,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
         <v>209</v>
       </c>
-      <c r="E18" t="s">
-        <v>239</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G18">
         <v>2022</v>
@@ -4295,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="3">
         <v>44724</v>
@@ -4317,13 +4241,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
         <v>210</v>
       </c>
-      <c r="E19" t="s">
-        <v>240</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G19">
         <v>2020</v>
@@ -4332,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="3">
         <v>44725</v>
@@ -4354,13 +4278,13 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" t="s">
         <v>211</v>
       </c>
-      <c r="E20" t="s">
-        <v>241</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G20">
         <v>2020</v>
@@ -4369,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J20" s="3">
         <v>44726</v>
@@ -4391,13 +4315,13 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" t="s">
         <v>212</v>
       </c>
-      <c r="E21" t="s">
-        <v>242</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G21">
         <v>2020</v>
@@ -4406,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" s="3">
         <v>44727</v>
@@ -4428,13 +4352,13 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
         <v>213</v>
       </c>
-      <c r="E22" t="s">
-        <v>243</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G22">
         <v>2021</v>
@@ -4443,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22" s="3">
         <v>44728</v>
@@ -4465,13 +4389,13 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" t="s">
         <v>214</v>
       </c>
-      <c r="E23" t="s">
-        <v>244</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G23">
         <v>2022</v>
@@ -4480,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J23" s="3">
         <v>44729</v>
@@ -4502,13 +4426,13 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" t="s">
         <v>215</v>
       </c>
-      <c r="E24" t="s">
-        <v>245</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G24">
         <v>2022</v>
@@ -4517,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J24" s="3">
         <v>44730</v>
@@ -4539,13 +4463,13 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
         <v>216</v>
       </c>
-      <c r="E25" t="s">
-        <v>246</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G25">
         <v>2020</v>
@@ -4554,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J25" s="3">
         <v>44731</v>
@@ -4576,13 +4500,13 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
         <v>217</v>
       </c>
-      <c r="E26" t="s">
-        <v>247</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G26">
         <v>2021</v>
@@ -4591,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J26" s="3">
         <v>44732</v>
@@ -4613,13 +4537,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" t="s">
         <v>218</v>
       </c>
-      <c r="E27" t="s">
-        <v>248</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="G27">
         <v>2021</v>
@@ -4628,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J27" s="3">
         <v>44733</v>
@@ -4650,13 +4574,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="s">
         <v>219</v>
       </c>
-      <c r="E28" t="s">
-        <v>249</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G28">
         <v>2022</v>
@@ -4665,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J28" s="3">
         <v>44734</v>
@@ -4687,13 +4611,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
         <v>220</v>
       </c>
-      <c r="E29" t="s">
-        <v>250</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G29">
         <v>2020</v>
@@ -4702,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J29" s="3">
         <v>44735</v>
@@ -4724,13 +4648,13 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="E30" t="s">
-        <v>251</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G30">
         <v>2020</v>
@@ -4739,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J30" s="3">
         <v>44736</v>
@@ -4761,13 +4685,13 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
         <v>222</v>
       </c>
-      <c r="E31" t="s">
-        <v>252</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G31">
         <v>2020</v>
@@ -4776,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31" s="3">
         <v>44737</v>
@@ -4798,13 +4722,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
         <v>223</v>
       </c>
-      <c r="E32" t="s">
-        <v>253</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G32">
         <v>2020</v>
@@ -4813,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J32" s="3">
         <v>44738</v>
@@ -5287,13 +5211,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
         <v>194</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(2020,2022)</f>
@@ -5317,29 +5241,29 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
         <v>195</v>
       </c>
-      <c r="D5" t="s">
-        <v>225</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F33" ca="1" si="0">RANDBETWEEN(2020,2022)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H33" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J33" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K33" ca="1" si="3">"INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES ("&amp;B5&amp;",'"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"',"&amp;F5&amp;","&amp;H5&amp;","&amp;J5&amp;");"</f>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC002','KUM012','CHEVROLET',2020,3,2);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC002','KUM012','CHEVROLET',2022,1,5);</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -5347,21 +5271,21 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
         <v>196</v>
       </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
@@ -5369,7 +5293,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC003','KUM013','CHEVROLET',2020,2,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC003','KUM013','CHEVROLET',2021,1,5);</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -5377,13 +5301,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
         <v>197</v>
       </c>
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
@@ -5395,11 +5319,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC004','KUM014','CHEVROLET',2020,1,1);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC004','KUM014','CHEVROLET',2020,1,2);</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -5407,29 +5331,29 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
         <v>198</v>
       </c>
-      <c r="D8" t="s">
-        <v>228</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC005','KUM015','CHEVROLET',2022,1,4);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC005','KUM015','CHEVROLET',2020,3,1);</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -5437,29 +5361,29 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
         <v>199</v>
       </c>
-      <c r="D9" t="s">
-        <v>229</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC006','KUM016','CHEVROLET',2021,3,2);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC006','KUM016','CHEVROLET',2020,2,5);</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -5467,13 +5391,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
         <v>200</v>
       </c>
-      <c r="D10" t="s">
-        <v>230</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -5481,15 +5405,15 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC007','KUM017','MERCEDES',2021,2,3);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC007','KUM017','MERCEDES',2021,1,4);</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -5497,13 +5421,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
         <v>201</v>
       </c>
-      <c r="D11" t="s">
-        <v>231</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
@@ -5511,15 +5435,15 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC008','KUM018','MERCEDES',2021,3,2);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC008','KUM018','MERCEDES',2021,1,4);</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -5527,17 +5451,17 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
         <v>202</v>
       </c>
-      <c r="D12" t="s">
-        <v>232</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
@@ -5545,11 +5469,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC009','KUM019','MERCEDES',2022,2,3);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC009','KUM019','MERCEDES',2021,2,5);</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -5557,13 +5481,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
         <v>203</v>
       </c>
-      <c r="D13" t="s">
-        <v>233</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
@@ -5571,7 +5495,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="2"/>
@@ -5579,7 +5503,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC010','KUM020','MERCEDES',2020,3,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC010','KUM020','MERCEDES',2020,1,5);</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -5587,13 +5511,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
         <v>204</v>
       </c>
-      <c r="D14" t="s">
-        <v>234</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
@@ -5601,15 +5525,15 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC011','KUM021','MERCEDES',2021,1,2);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC011','KUM021','MERCEDES',2021,3,1);</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -5617,29 +5541,29 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
         <v>205</v>
       </c>
-      <c r="D15" t="s">
-        <v>235</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC012','KUM022','MERCEDES',2020,3,1);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC012','KUM022','MERCEDES',2021,2,3);</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -5647,21 +5571,21 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
         <v>206</v>
       </c>
-      <c r="D16" t="s">
-        <v>236</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="2"/>
@@ -5669,7 +5593,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC013','KUM023','MERCEDES',2022,1,2);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC013','KUM023','MERCEDES',2021,3,2);</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -5677,13 +5601,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
         <v>207</v>
       </c>
-      <c r="D17" t="s">
-        <v>237</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
@@ -5691,15 +5615,15 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC014','KUM024','MERCEDES',2022,3,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC014','KUM024','MERCEDES',2022,1,1);</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -5707,17 +5631,17 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
         <v>208</v>
       </c>
-      <c r="D18" t="s">
-        <v>238</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
@@ -5725,11 +5649,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC015','KUM025','MERCEDES',2022,1,3);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC015','KUM025','MERCEDES',2021,1,2);</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -5737,29 +5661,29 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
         <v>209</v>
       </c>
-      <c r="D19" t="s">
-        <v>239</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC016','KUM026','MERCEDES',2022,1,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC016','KUM026','MERCEDES',2020,2,2);</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -5767,13 +5691,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
         <v>210</v>
       </c>
-      <c r="D20" t="s">
-        <v>240</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
@@ -5781,7 +5705,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
@@ -5789,7 +5713,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC017','KUM027','SUZUKI',2021,1,4);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC017','KUM027','SUZUKI',2021,3,4);</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -5797,13 +5721,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
         <v>211</v>
       </c>
-      <c r="D21" t="s">
-        <v>241</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
@@ -5811,7 +5735,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="2"/>
@@ -5819,7 +5743,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC018','KUM028','SUZUKI',2020,2,1);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC018','KUM028','SUZUKI',2020,1,1);</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -5827,13 +5751,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" t="s">
         <v>212</v>
       </c>
-      <c r="D22" t="s">
-        <v>242</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
@@ -5845,11 +5769,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC019','KUM029','SUZUKI',2021,3,2);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC019','KUM029','SUZUKI',2021,3,3);</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -5857,13 +5781,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" t="s">
         <v>213</v>
       </c>
-      <c r="D23" t="s">
-        <v>243</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
@@ -5875,11 +5799,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC020','KUM030','SUZUKI',2021,2,3);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC020','KUM030','SUZUKI',2021,2,1);</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -5887,17 +5811,17 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
         <v>214</v>
       </c>
-      <c r="D24" t="s">
-        <v>244</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
@@ -5905,11 +5829,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC021','KUM031','SUZUKI',2020,2,3);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC021','KUM031','SUZUKI',2021,2,5);</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -5917,29 +5841,29 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
         <v>215</v>
       </c>
-      <c r="D25" t="s">
-        <v>245</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC022','KUM032','SUZUKI',2021,3,3);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC022','KUM032','SUZUKI',2022,1,1);</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -5947,13 +5871,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
         <v>216</v>
       </c>
-      <c r="D26" t="s">
-        <v>246</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
@@ -5961,7 +5885,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="2"/>
@@ -5969,7 +5893,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC023','KUM033','SUZUKI',2022,3,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC023','KUM033','SUZUKI',2022,1,5);</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -5977,17 +5901,17 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
         <v>217</v>
       </c>
-      <c r="D27" t="s">
-        <v>247</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
@@ -5995,11 +5919,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC024','KUM034','SUZUKI',2021,2,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC024','KUM034','SUZUKI',2020,2,3);</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -6007,13 +5931,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
         <v>218</v>
       </c>
-      <c r="D28" t="s">
-        <v>248</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
@@ -6021,15 +5945,15 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC025','KUM035','SUZUKI',2021,2,3);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC025','KUM035','SUZUKI',2021,3,1);</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -6037,17 +5961,17 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" t="s">
         <v>219</v>
       </c>
-      <c r="D29" t="s">
-        <v>249</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
@@ -6055,11 +5979,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC026','KUM036','MERCEDES',2022,2,1);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC026','KUM036','MERCEDES',2020,2,3);</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -6067,29 +5991,29 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" t="s">
         <v>220</v>
       </c>
-      <c r="D30" t="s">
-        <v>250</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC027','KUM037','MERCEDES',2020,2,1);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC027','KUM037','MERCEDES',2022,1,2);</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -6097,13 +6021,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="s">
         <v>221</v>
       </c>
-      <c r="D31" t="s">
-        <v>251</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
@@ -6111,15 +6035,15 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC028','KUM038','MERCEDES',2021,2,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC028','KUM038','MERCEDES',2021,1,1);</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -6127,29 +6051,29 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" t="s">
         <v>222</v>
       </c>
-      <c r="D32" t="s">
-        <v>252</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC029','KUM039','CHEVROLET',2021,1,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC029','KUM039','CHEVROLET',2020,3,1);</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -6157,13 +6081,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" t="s">
         <v>223</v>
       </c>
-      <c r="D33" t="s">
-        <v>253</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
@@ -6171,15 +6095,15 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC030','KUM040','CHEVROLET',2022,1,5);</v>
+        <v>INSERT INTO VEHICULOS (Id_Vehiculo,Codigo,Placa,Marca,Modelo,Tipo_Vehiculo,Estado_Vehiculo) VALUES (NULL,'MC030','KUM040','CHEVROLET',2022,2,3);</v>
       </c>
     </row>
   </sheetData>
@@ -6190,1010 +6114,464 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3823F164-56A6-4CB9-A5F4-2764F633E200}">
-  <dimension ref="B2:Q32"/>
+  <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="2"/>
-    <col min="17" max="17" width="11.42578125" style="4"/>
-    <col min="18" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="2"/>
+    <col min="18" max="18" width="11.42578125" style="4"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>1121</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>44708</v>
       </c>
-      <c r="P3" s="2" t="str">
-        <f>TEXT(O3,"YYYY-MM-DD")</f>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" ref="Q3:Q13" si="0">TEXT(P3,"YYYY-MM-DD")</f>
         <v>2022-05-27</v>
       </c>
-      <c r="Q3" s="4" t="str">
-        <f>"INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES ("&amp;B3&amp;","&amp;C3&amp;",'"&amp;D3&amp;"',"&amp;I3&amp;","&amp;M3&amp;",'"&amp;N3&amp;"','"&amp;P3&amp;"');"</f>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1121,'KUM35',0,1,'OK','2022-05-27');</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="4" t="str">
+        <f>"INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES ("&amp;B3&amp;","&amp;C3&amp;",'"&amp;D3&amp;"','"&amp;E3&amp;"',"&amp;J3&amp;","&amp;N3&amp;",'"&amp;O3&amp;"','"&amp;Q3&amp;"');"</f>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1,'MC001','KUM011',2,2,'PROBELMAS MECANICOS','2022-05-27');</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>1122</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="P4" s="3">
+        <v>44708</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-27</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" ref="R4:R13" si="1">"INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES ("&amp;B4&amp;","&amp;C4&amp;",'"&amp;D4&amp;"','"&amp;E4&amp;"',"&amp;J4&amp;","&amp;N4&amp;",'"&amp;O4&amp;"','"&amp;Q4&amp;"');"</f>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,5,'MC005','KUM015',3,3,'EN ESPERA DE REVISION','2022-05-27');</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P5" s="3">
         <v>44708</v>
       </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" ref="P4:P32" si="0">TEXT(O4,"YYYY-MM-DD")</f>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>2022-05-27</v>
       </c>
-      <c r="Q4" s="4" t="str">
-        <f t="shared" ref="Q4:Q32" si="1">"INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES ("&amp;B4&amp;","&amp;C4&amp;",'"&amp;D4&amp;"',"&amp;I4&amp;","&amp;M4&amp;",'"&amp;N4&amp;"','"&amp;P4&amp;"');"</f>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1122,'KUM36',0,2,'PROBELMAS MECANICOS','2022-05-27');</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1123</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,10,'MC010','KUM020',2,2,'PROBELMAS ELECTRICOS','2022-05-27');</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="P6" s="3">
+        <v>44708</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-27</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,12,'MC012','KUM022',3,2,'PROBELMAS CARROSERO','2022-05-27');</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="3">
+        <v>44686</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-05</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,18,'MC018','KUM028',2,2,'PROBELMAS CARROSERO','2022-05-05');</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="3">
+        <v>44688</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-07</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,20,'MC020','KUM030',3,3,'EN ESPERA DE REVISION','2022-05-07');</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="3">
+        <v>44693</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-12</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,30,'MC030','KUM040',3,2,'PROBELMAS ELECTRICOS','2022-05-12');</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="3">
+        <v>44698</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-17</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,25,'MC025','KUM035',2,3,'EN ESPERA DE REVISION','2022-05-17');</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="3">
+        <v>44705</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-24</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,22,'MC022','KUM032',2,3,'EN ESPERA DE REVISION','2022-05-24');</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P12" s="3">
+        <v>44707</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2022-05-26</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,28,'MC028','KUM038',2,2,'PROBELMAS MECANICOS','2022-05-26');</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="3">
         <v>44708</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="Q13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2022-05-27</v>
       </c>
-      <c r="Q5" s="4" t="str">
+      <c r="R13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1123,'KUM37',0,1,'OK','2022-05-27');</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1124</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O6" s="3">
-        <v>44708</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-27</v>
-      </c>
-      <c r="Q6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1124,'KUM38',0,3,'EN ESPERA DE REVISION','2022-05-27');</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1125</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="O7" s="3">
-        <v>44708</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-27</v>
-      </c>
-      <c r="Q7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1125,'KUM39',0,2,'PROBELMAS ELECTRICOS','2022-05-27');</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1126</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O8" s="3">
-        <v>44708</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-27</v>
-      </c>
-      <c r="Q8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1126,'KUM40',0,2,'PROBELMAS CARROSERO','2022-05-27');</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1127</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O9" s="3">
-        <v>44686</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-05</v>
-      </c>
-      <c r="Q9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1127,'KUM41',0,2,'PROBELMAS CARROSERO','2022-05-05');</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1128</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O10" s="3">
-        <v>44687</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-06</v>
-      </c>
-      <c r="Q10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1128,'KUM42',0,1,'OK','2022-05-06');</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1129</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" s="3">
-        <v>44688</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-07</v>
-      </c>
-      <c r="Q11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1129,'KUM43',0,3,'EN ESPERA DE REVISION','2022-05-07');</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1130</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O12" s="3">
-        <v>44689</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-08</v>
-      </c>
-      <c r="Q12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1130,'KUM44',0,1,'OK','2022-05-08');</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O13" s="3">
-        <v>44690</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-09</v>
-      </c>
-      <c r="Q13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1131,'KUM45',0,1,'OK','2022-05-09');</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1132</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O14" s="3">
-        <v>44691</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-10</v>
-      </c>
-      <c r="Q14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1132,'KUM46',0,1,'OK','2022-05-10');</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1133</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O15" s="3">
-        <v>44692</v>
-      </c>
-      <c r="P15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-11</v>
-      </c>
-      <c r="Q15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1133,'KUM47',0,1,'OK','2022-05-11');</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1134</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>2</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="O16" s="3">
-        <v>44693</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-12</v>
-      </c>
-      <c r="Q16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1134,'KUM48',0,2,'PROBELMAS ELECTRICOS','2022-05-12');</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1135</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O17" s="3">
-        <v>44694</v>
-      </c>
-      <c r="P17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-13</v>
-      </c>
-      <c r="Q17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1135,'KUM49',0,1,'OK','2022-05-13');</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1136</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O18" s="3">
-        <v>44695</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-14</v>
-      </c>
-      <c r="Q18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1136,'CDJ34',0,1,'OK','2022-05-14');</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O19" s="3">
-        <v>44696</v>
-      </c>
-      <c r="P19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-15</v>
-      </c>
-      <c r="Q19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1137,'CDJ35',0,1,'OK','2022-05-15');</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O20" s="3">
-        <v>44697</v>
-      </c>
-      <c r="P20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-16</v>
-      </c>
-      <c r="Q20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1138,'CDJ36',0,1,'OK','2022-05-16');</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1139</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" s="3">
-        <v>44698</v>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-17</v>
-      </c>
-      <c r="Q21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1139,'CDJ37',0,3,'EN ESPERA DE REVISION','2022-05-17');</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1140</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O22" s="3">
-        <v>44699</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-18</v>
-      </c>
-      <c r="Q22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1140,'CDJ38',0,1,'OK','2022-05-18');</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1141</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>3</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O23" s="3">
-        <v>44700</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-19</v>
-      </c>
-      <c r="Q23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1141,'CDJ39',0,3,'OK','2022-05-19');</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1142</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O24" s="3">
-        <v>44701</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-20</v>
-      </c>
-      <c r="Q24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1142,'CDJ40',0,1,'OK','2022-05-20');</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1143</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O25" s="3">
-        <v>44702</v>
-      </c>
-      <c r="P25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-21</v>
-      </c>
-      <c r="Q25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1143,'CDJ41',0,1,'OK','2022-05-21');</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1144</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O26" s="3">
-        <v>44703</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-22</v>
-      </c>
-      <c r="Q26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1144,'CDJ42',0,3,'OK','2022-05-22');</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O27" s="3">
-        <v>44704</v>
-      </c>
-      <c r="P27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-23</v>
-      </c>
-      <c r="Q27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1145,'CDJ43',0,1,'OK','2022-05-23');</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1146</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>3</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" s="3">
-        <v>44705</v>
-      </c>
-      <c r="P28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-24</v>
-      </c>
-      <c r="Q28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1146,'CDJ44',0,3,'EN ESPERA DE REVISION','2022-05-24');</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1147</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O29" s="3">
-        <v>44706</v>
-      </c>
-      <c r="P29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-25</v>
-      </c>
-      <c r="Q29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1147,'CDJ45',0,1,'OK','2022-05-25');</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1148</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>2</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O30" s="3">
-        <v>44707</v>
-      </c>
-      <c r="P30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-26</v>
-      </c>
-      <c r="Q30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1148,'CDJ46',0,2,'PROBELMAS MECANICOS','2022-05-26');</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1149</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>2</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O31" s="3">
-        <v>44708</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-27</v>
-      </c>
-      <c r="Q31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1149,'CDJ47',0,2,'PROBELMAS MECANICOS','2022-05-27');</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1150</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O32" s="3">
-        <v>44709</v>
-      </c>
-      <c r="P32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2022-05-28</v>
-      </c>
-      <c r="Q32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,1150,'CDJ48',0,1,'OK','2022-05-28');</v>
-      </c>
+        <v>INSERT INTO ORDEN_TRABAJO (ID_ORDEN_TRABAJO, ID_VEHICULO ,CODIGO_VEHICULO,PLACA,ASIGNAR,ESTADO_VEHICULO,OBSERVACIONES,FECHA_ORDEN_TRABAJO) VALUES (NULL,21,'MC021','KUM031',2,2,'PROBELMAS MECANICOS','2022-05-27');</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7213,7 +6591,7 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -7221,7 +6599,7 @@
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -7233,7 +6611,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -7245,10 +6623,10 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -7257,10 +6635,10 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -7269,10 +6647,10 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
